--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tshb-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tshb-Tshr.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.902273666666667</v>
+        <v>2.388023</v>
       </c>
       <c r="H2">
-        <v>8.706821000000001</v>
+        <v>7.164069</v>
       </c>
       <c r="I2">
-        <v>0.7887169755909408</v>
+        <v>0.629429112239379</v>
       </c>
       <c r="J2">
-        <v>0.7887169755909408</v>
+        <v>0.629429112239379</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.8749903333333334</v>
+        <v>0.051093</v>
       </c>
       <c r="N2">
-        <v>2.624971</v>
+        <v>0.153279</v>
       </c>
       <c r="O2">
-        <v>0.2670516933349977</v>
+        <v>0.01450579975525089</v>
       </c>
       <c r="P2">
-        <v>0.2670516933349977</v>
+        <v>0.01450579975525089</v>
       </c>
       <c r="Q2">
-        <v>2.539461403021223</v>
+        <v>0.122011259139</v>
       </c>
       <c r="R2">
-        <v>22.85515262719101</v>
+        <v>1.098101332251</v>
       </c>
       <c r="S2">
-        <v>0.2106282038936188</v>
+        <v>0.009130372662269766</v>
       </c>
       <c r="T2">
-        <v>0.2106282038936188</v>
+        <v>0.00913037266226977</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.902273666666667</v>
+        <v>2.388023</v>
       </c>
       <c r="H3">
-        <v>8.706821000000001</v>
+        <v>7.164069</v>
       </c>
       <c r="I3">
-        <v>0.7887169755909408</v>
+        <v>0.629429112239379</v>
       </c>
       <c r="J3">
-        <v>0.7887169755909408</v>
+        <v>0.629429112239379</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.444111</v>
       </c>
       <c r="O3">
-        <v>0.2486518827250642</v>
+        <v>0.2313022967634575</v>
       </c>
       <c r="P3">
-        <v>0.2486518827250642</v>
+        <v>0.2313022967634575</v>
       </c>
       <c r="Q3">
-        <v>2.364492997903445</v>
+        <v>1.945531094184333</v>
       </c>
       <c r="R3">
-        <v>21.280436981131</v>
+        <v>17.509779847659</v>
       </c>
       <c r="S3">
-        <v>0.1961159609179059</v>
+        <v>0.1455883993107524</v>
       </c>
       <c r="T3">
-        <v>0.196115960917906</v>
+        <v>0.1455883993107525</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.902273666666667</v>
+        <v>2.388023</v>
       </c>
       <c r="H4">
-        <v>8.706821000000001</v>
+        <v>7.164069</v>
       </c>
       <c r="I4">
-        <v>0.7887169755909408</v>
+        <v>0.629429112239379</v>
       </c>
       <c r="J4">
-        <v>0.7887169755909408</v>
+        <v>0.629429112239379</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.586789</v>
+        <v>2.656449666666667</v>
       </c>
       <c r="N4">
-        <v>4.760367</v>
+        <v>7.969348999999999</v>
       </c>
       <c r="O4">
-        <v>0.484296423939938</v>
+        <v>0.7541919034812916</v>
       </c>
       <c r="P4">
-        <v>0.484296423939938</v>
+        <v>0.7541919034812917</v>
       </c>
       <c r="Q4">
-        <v>4.605295929256335</v>
+        <v>6.343662902342333</v>
       </c>
       <c r="R4">
-        <v>41.44766336330701</v>
+        <v>57.092966121081</v>
       </c>
       <c r="S4">
-        <v>0.381972810779416</v>
+        <v>0.4747103402663568</v>
       </c>
       <c r="T4">
-        <v>0.381972810779416</v>
+        <v>0.4747103402663569</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>0.614374</v>
       </c>
       <c r="I5">
-        <v>0.05565374585761078</v>
+        <v>0.05397838594281493</v>
       </c>
       <c r="J5">
-        <v>0.05565374585761078</v>
+        <v>0.05397838594281493</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.8749903333333334</v>
+        <v>0.051093</v>
       </c>
       <c r="N5">
-        <v>2.624971</v>
+        <v>0.153279</v>
       </c>
       <c r="O5">
-        <v>0.2670516933349977</v>
+        <v>0.01450579975525089</v>
       </c>
       <c r="P5">
-        <v>0.2670516933349977</v>
+        <v>0.01450579975525089</v>
       </c>
       <c r="Q5">
-        <v>0.1791904370171111</v>
+        <v>0.010463403594</v>
       </c>
       <c r="R5">
-        <v>1.612713933154</v>
+        <v>0.094170632346</v>
       </c>
       <c r="S5">
-        <v>0.01486242707171057</v>
+        <v>0.0007829996575981227</v>
       </c>
       <c r="T5">
-        <v>0.01486242707171057</v>
+        <v>0.0007829996575981228</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.614374</v>
       </c>
       <c r="I6">
-        <v>0.05565374585761078</v>
+        <v>0.05397838594281493</v>
       </c>
       <c r="J6">
-        <v>0.05565374585761078</v>
+        <v>0.05397838594281493</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>2.444111</v>
       </c>
       <c r="O6">
-        <v>0.2486518827250642</v>
+        <v>0.2313022967634575</v>
       </c>
       <c r="P6">
-        <v>0.2486518827250642</v>
+        <v>0.2313022967634575</v>
       </c>
       <c r="Q6">
         <v>0.1668442501682222</v>
@@ -818,10 +818,10 @@
         <v>1.501598251514</v>
       </c>
       <c r="S6">
-        <v>0.01383840868819716</v>
+        <v>0.01248532464415742</v>
       </c>
       <c r="T6">
-        <v>0.01383840868819716</v>
+        <v>0.01248532464415742</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.614374</v>
       </c>
       <c r="I7">
-        <v>0.05565374585761078</v>
+        <v>0.05397838594281493</v>
       </c>
       <c r="J7">
-        <v>0.05565374585761078</v>
+        <v>0.05397838594281493</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.586789</v>
+        <v>2.656449666666667</v>
       </c>
       <c r="N7">
-        <v>4.760367</v>
+        <v>7.969348999999999</v>
       </c>
       <c r="O7">
-        <v>0.484296423939938</v>
+        <v>0.7541919034812916</v>
       </c>
       <c r="P7">
-        <v>0.484296423939938</v>
+        <v>0.7541919034812917</v>
       </c>
       <c r="Q7">
-        <v>0.3249606350286667</v>
+        <v>0.5440178691695555</v>
       </c>
       <c r="R7">
-        <v>2.924645715258</v>
+        <v>4.896160822525999</v>
       </c>
       <c r="S7">
-        <v>0.02695291009770304</v>
+        <v>0.04071006164105939</v>
       </c>
       <c r="T7">
-        <v>0.02695291009770304</v>
+        <v>0.04071006164105939</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5726753333333333</v>
+        <v>1.201136333333333</v>
       </c>
       <c r="H8">
-        <v>1.718026</v>
+        <v>3.603409</v>
       </c>
       <c r="I8">
-        <v>0.1556292785514485</v>
+        <v>0.3165925018178061</v>
       </c>
       <c r="J8">
-        <v>0.1556292785514485</v>
+        <v>0.3165925018178061</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.8749903333333334</v>
+        <v>0.051093</v>
       </c>
       <c r="N8">
-        <v>2.624971</v>
+        <v>0.153279</v>
       </c>
       <c r="O8">
-        <v>0.2670516933349977</v>
+        <v>0.01450579975525089</v>
       </c>
       <c r="P8">
-        <v>0.2670516933349977</v>
+        <v>0.01450579975525089</v>
       </c>
       <c r="Q8">
-        <v>0.5010853808051111</v>
+        <v>0.061369658679</v>
       </c>
       <c r="R8">
-        <v>4.509768427246001</v>
+        <v>0.552326928111</v>
       </c>
       <c r="S8">
-        <v>0.04156106236966837</v>
+        <v>0.004592427435382998</v>
       </c>
       <c r="T8">
-        <v>0.04156106236966837</v>
+        <v>0.004592427435382999</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5726753333333333</v>
+        <v>1.201136333333333</v>
       </c>
       <c r="H9">
-        <v>1.718026</v>
+        <v>3.603409</v>
       </c>
       <c r="I9">
-        <v>0.1556292785514485</v>
+        <v>0.3165925018178061</v>
       </c>
       <c r="J9">
-        <v>0.1556292785514485</v>
+        <v>0.3165925018178061</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>2.444111</v>
       </c>
       <c r="O9">
-        <v>0.2486518827250642</v>
+        <v>0.2313022967634575</v>
       </c>
       <c r="P9">
-        <v>0.2486518827250642</v>
+        <v>0.2313022967634575</v>
       </c>
       <c r="Q9">
-        <v>0.4665606938762222</v>
+        <v>0.9785701749332222</v>
       </c>
       <c r="R9">
-        <v>4.199046244886</v>
+        <v>8.807131574399</v>
       </c>
       <c r="S9">
-        <v>0.03869751311896112</v>
+        <v>0.07322857280854764</v>
       </c>
       <c r="T9">
-        <v>0.03869751311896113</v>
+        <v>0.07322857280854765</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5726753333333333</v>
+        <v>1.201136333333333</v>
       </c>
       <c r="H10">
-        <v>1.718026</v>
+        <v>3.603409</v>
       </c>
       <c r="I10">
-        <v>0.1556292785514485</v>
+        <v>0.3165925018178061</v>
       </c>
       <c r="J10">
-        <v>0.1556292785514485</v>
+        <v>0.3165925018178061</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.586789</v>
+        <v>2.656449666666667</v>
       </c>
       <c r="N10">
-        <v>4.760367</v>
+        <v>7.969348999999999</v>
       </c>
       <c r="O10">
-        <v>0.484296423939938</v>
+        <v>0.7541919034812916</v>
       </c>
       <c r="P10">
-        <v>0.484296423939938</v>
+        <v>0.7541919034812917</v>
       </c>
       <c r="Q10">
-        <v>0.9087149195046668</v>
+        <v>3.190758212304555</v>
       </c>
       <c r="R10">
-        <v>8.178434275542001</v>
+        <v>28.716823910741</v>
       </c>
       <c r="S10">
-        <v>0.07537070306281901</v>
+        <v>0.2387715015738755</v>
       </c>
       <c r="T10">
-        <v>0.07537070306281901</v>
+        <v>0.2387715015738755</v>
       </c>
     </row>
   </sheetData>
